--- a/biology/Zoologie/Argus_castillan/Argus_castillan.xlsx
+++ b/biology/Zoologie/Argus_castillan/Argus_castillan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricia morronensis
 L’Azuré castillan (Aricia morronensis) est un lépidoptère (papillon) de la famille des Lycaenidae, de la sous-famille des Polyommatinae, du genre Aricia.
@@ -512,20 +524,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aricia morronensis (Ribbe, 1910)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aricia morronensis (Ribbe, 1910)
 Synonymes :
 Ultraaricia morronensis
-Lycaena morronensis (Ribbe, 1910)
-Sous-espèces
-Aricia morronensis morronensis présent dans l'Andalousie (S. Espagne) et S. Albacete et Murcia.
-Aricia morronensis hersselbarthi (Manley, 1970) dans l'Abejar (Soria, Espagne)
-Aricia morronensis ramburi (Verity, 1913) présent dans la Sierra Nevada
-Aricia morronensis boudrani (Leraut,1999) présent au col du Tourmalet et au cirque de Gavarnie.
-Noms vernaculaires
-L’Azuré  castillan se nomme en anglais Spanish Argus et en espagnol Morena Espanola.
-</t>
+Lycaena morronensis (Ribbe, 1910)</t>
         </is>
       </c>
     </row>
@@ -550,10 +556,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aricia morronensis morronensis présent dans l'Andalousie (S. Espagne) et S. Albacete et Murcia.
+Aricia morronensis hersselbarthi (Manley, 1970) dans l'Abejar (Soria, Espagne)
+Aricia morronensis ramburi (Verity, 1913) présent dans la Sierra Nevada
+Aricia morronensis boudrani (Leraut,1999) présent au col du Tourmalet et au cirque de Gavarnie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Argus_castillan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré  castillan se nomme en anglais Spanish Argus et en espagnol Morena Espanola.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Argus_castillan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon au dessus marron et frange blanche qui chez certains possède un point discoïdal au recto cerné de blanc.
 Le verso est ocre orné de lignes de points noirs cernés de blanc et d'une ligne submarginale de points orange (absente dans certaines sous-espèces).
@@ -561,72 +645,184 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Argus_castillan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argus_castillan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Au-dessus de 1 800 mètres, il vole en une génération en juillet-août. Ultraaricia morronensis hersselbarthi est bivoltin.
-La chenille, qui hiverne, est soignée par des fourmis, Lasius niger, Crematogaster auberti, Tapinoma erraticum et Tapinoma nigerrimum[1].
-Plantes hôtes
-Ses plantes hôte sont des Erodium.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au-dessus de 1 800 mètres, il vole en une génération en juillet-août. Ultraaricia morronensis hersselbarthi est bivoltin.
+La chenille, qui hiverne, est soignée par des fourmis, Lasius niger, Crematogaster auberti, Tapinoma erraticum et Tapinoma nigerrimum.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Argus_castillan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argus_castillan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôte sont des Erodium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Argus_castillan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent uniquement en Espagne et en France au col du Tourmalet et au cirque de Gavarnie dans le département des Hautes-Pyrénées[2].
-Biotope
-Il occupe des zones caillouteuses entre 900 à 2 000 m.
-Protection
-Aricia morronensis est sur la liste rouge des papillons protégés en Europe[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent uniquement en Espagne et en France au col du Tourmalet et au cirque de Gavarnie dans le département des Hautes-Pyrénées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Argus_castillan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il occupe des zones caillouteuses entre 900 à 2 000 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Argus_castillan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_castillan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aricia morronensis est sur la liste rouge des papillons protégés en Europe.
 </t>
         </is>
       </c>
